--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ - ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/BÁO GIÁ - ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F369D3BF-6223-4E86-A9AE-819B2631D5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF458CFB-0D9C-4576-BED4-27204F98FA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -921,26 +921,146 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -948,87 +1068,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1037,45 +1076,6 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1443,8 +1443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49:F49"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1465,48 +1465,48 @@
       <c r="A1" s="3"/>
       <c r="B1" s="41"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
     </row>
     <row r="2" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5"/>
       <c r="B2" s="42"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
     </row>
     <row r="3" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="42"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="42"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="42"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
@@ -1518,15 +1518,15 @@
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:12" s="24" customFormat="1" ht="25" x14ac:dyDescent="0.3">
-      <c r="A7" s="82" t="s">
+      <c r="A7" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="100"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
@@ -1549,29 +1549,29 @@
     </row>
     <row r="9" spans="1:12" s="24" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="32"/>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="101"/>
       <c r="H9" s="26"/>
       <c r="I9" s="26"/>
       <c r="J9" s="26"/>
       <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="86"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="103"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="104"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
@@ -1579,13 +1579,13 @@
       <c r="L10" s="27"/>
     </row>
     <row r="11" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="87"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
+      <c r="A11" s="105"/>
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="107"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="28"/>
@@ -1593,30 +1593,30 @@
       <c r="L11" s="28"/>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="90" t="s">
+      <c r="A12" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="93"/>
-      <c r="D12" s="90" t="s">
+      <c r="C12" s="111"/>
+      <c r="D12" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="97"/>
+      <c r="F12" s="115"/>
       <c r="G12" s="40" t="s">
         <v>0</v>
       </c>
       <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="91"/>
-      <c r="B13" s="94"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="91"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="109"/>
       <c r="E13" s="33" t="s">
         <v>48</v>
       </c>
@@ -1627,92 +1627,92 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="101">
+      <c r="A14" s="86">
         <v>1</v>
       </c>
-      <c r="B14" s="75" t="s">
+      <c r="B14" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="104" t="s">
+      <c r="C14" s="92" t="s">
         <v>45</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="72">
+      <c r="E14" s="95">
         <v>130000</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="95">
         <v>130000</v>
       </c>
-      <c r="G14" s="98"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="31"/>
     </row>
     <row r="15" spans="1:12" ht="49.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="102"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="105"/>
+      <c r="A15" s="87"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="99"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="84"/>
       <c r="H15" s="31"/>
     </row>
     <row r="16" spans="1:12" ht="33" x14ac:dyDescent="0.35">
-      <c r="A16" s="102"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="105"/>
+      <c r="A16" s="87"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="93"/>
       <c r="D16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="99"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="84"/>
       <c r="H16" s="31"/>
     </row>
     <row r="17" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A17" s="102"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="105"/>
+      <c r="A17" s="87"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="93"/>
       <c r="D17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="99"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="84"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.35">
-      <c r="A18" s="102"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="105"/>
+      <c r="A18" s="87"/>
+      <c r="B18" s="90"/>
+      <c r="C18" s="93"/>
       <c r="D18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="99"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+      <c r="G18" s="84"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="103"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="106"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="94"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="100"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A20" s="34">
         <v>2</v>
       </c>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="89" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="58" t="s">
@@ -1734,7 +1734,7 @@
       <c r="A21" s="34">
         <v>3</v>
       </c>
-      <c r="B21" s="76"/>
+      <c r="B21" s="90"/>
       <c r="C21" s="10" t="s">
         <v>43</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="A22" s="34">
         <v>4</v>
       </c>
-      <c r="B22" s="76"/>
+      <c r="B22" s="90"/>
       <c r="C22" s="10" t="s">
         <v>23</v>
       </c>
@@ -1772,7 +1772,7 @@
       <c r="A23" s="34">
         <v>5</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="90"/>
       <c r="C23" s="10" t="s">
         <v>44</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="A24" s="34">
         <v>6</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="90"/>
       <c r="C24" s="10" t="s">
         <v>63</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="A25" s="34">
         <v>7</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="90"/>
       <c r="C25" s="10" t="s">
         <v>70</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="A26" s="34">
         <v>8</v>
       </c>
-      <c r="B26" s="77"/>
+      <c r="B26" s="91"/>
       <c r="C26" s="10" t="s">
         <v>39</v>
       </c>
@@ -1914,7 +1914,7 @@
       <c r="A30" s="34">
         <v>12</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="118" t="s">
         <v>26</v>
       </c>
       <c r="C30" s="13" t="s">
@@ -1923,13 +1923,13 @@
       <c r="D30" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="109">
+      <c r="E30" s="122">
         <v>50000</v>
       </c>
-      <c r="F30" s="109">
+      <c r="F30" s="122">
         <v>50000</v>
       </c>
-      <c r="G30" s="110" t="s">
+      <c r="G30" s="79" t="s">
         <v>47</v>
       </c>
       <c r="H30" s="21"/>
@@ -1938,16 +1938,16 @@
       <c r="A31" s="34">
         <v>13</v>
       </c>
-      <c r="B31" s="78"/>
+      <c r="B31" s="118"/>
       <c r="C31" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="111"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="80"/>
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8" ht="33" x14ac:dyDescent="0.35">
@@ -2020,7 +2020,7 @@
       <c r="A35" s="34">
         <v>18</v>
       </c>
-      <c r="B35" s="112"/>
+      <c r="B35" s="81"/>
       <c r="C35" s="13" t="s">
         <v>35</v>
       </c>
@@ -2033,14 +2033,14 @@
       <c r="F35" s="15">
         <v>50000</v>
       </c>
-      <c r="G35" s="113"/>
+      <c r="G35" s="82"/>
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8" ht="33" x14ac:dyDescent="0.35">
       <c r="A36" s="34">
         <v>19</v>
       </c>
-      <c r="B36" s="112"/>
+      <c r="B36" s="81"/>
       <c r="C36" s="18" t="s">
         <v>37</v>
       </c>
@@ -2053,14 +2053,14 @@
       <c r="F36" s="15">
         <v>35000</v>
       </c>
-      <c r="G36" s="111"/>
+      <c r="G36" s="80"/>
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8" ht="33" x14ac:dyDescent="0.35">
       <c r="A37" s="34">
         <v>20</v>
       </c>
-      <c r="B37" s="107" t="s">
+      <c r="B37" s="120" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="48" t="s">
@@ -2082,7 +2082,7 @@
       <c r="A38" s="34">
         <v>21</v>
       </c>
-      <c r="B38" s="108"/>
+      <c r="B38" s="121"/>
       <c r="C38" s="48" t="s">
         <v>75</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="A40" s="34">
         <v>23</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="118" t="s">
         <v>65</v>
       </c>
       <c r="C40" s="18" t="s">
@@ -2140,7 +2140,7 @@
       <c r="A41" s="34">
         <v>24</v>
       </c>
-      <c r="B41" s="78"/>
+      <c r="B41" s="118"/>
       <c r="C41" s="18" t="s">
         <v>52</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="A42" s="34">
         <v>25</v>
       </c>
-      <c r="B42" s="78"/>
+      <c r="B42" s="118"/>
       <c r="C42" s="18" t="s">
         <v>54</v>
       </c>
@@ -2193,12 +2193,12 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A44" s="79" t="s">
+      <c r="A44" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="B44" s="79"/>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="119"/>
+      <c r="D44" s="119"/>
       <c r="E44" s="36">
         <f>SUM(E14:E43)</f>
         <v>1944000</v>
@@ -2210,65 +2210,65 @@
       <c r="G44" s="56"/>
       <c r="H44" s="21"/>
     </row>
-    <row r="46" spans="1:8" s="117" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A46" s="114" t="s">
+    <row r="46" spans="1:8" s="73" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A46" s="117" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="114"/>
-      <c r="C46" s="114"/>
-      <c r="D46" s="114"/>
-      <c r="E46" s="115"/>
-      <c r="F46" s="116"/>
+      <c r="B46" s="117"/>
+      <c r="C46" s="117"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="72"/>
     </row>
     <row r="47" spans="1:8" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="64"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="116" t="s">
         <v>79</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="116"/>
+      <c r="E47" s="116"/>
+      <c r="F47" s="116"/>
     </row>
     <row r="48" spans="1:8" s="63" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="64"/>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="116"/>
+      <c r="E48" s="116"/>
+      <c r="F48" s="116"/>
     </row>
     <row r="49" spans="1:6" s="66" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="65"/>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="116" t="s">
         <v>81</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
+      <c r="C49" s="116"/>
+      <c r="D49" s="116"/>
+      <c r="E49" s="116"/>
+      <c r="F49" s="116"/>
     </row>
     <row r="50" spans="1:6" s="67" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="62"/>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="116" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
     </row>
     <row r="51" spans="1:6" s="67" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="62"/>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
+      <c r="C51" s="116"/>
+      <c r="D51" s="116"/>
+      <c r="E51" s="116"/>
+      <c r="F51" s="116"/>
     </row>
     <row r="52" spans="1:6" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A52" s="62"/>
@@ -2290,15 +2290,15 @@
       <c r="E53" s="61"/>
       <c r="F53" s="69"/>
     </row>
-    <row r="54" spans="1:6" s="122" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="118" t="s">
+    <row r="54" spans="1:6" s="78" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="B54" s="119"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="119"/>
+      <c r="B54" s="75"/>
+      <c r="C54" s="76"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="75"/>
     </row>
     <row r="55" spans="1:6" s="67" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A55" s="62"/>
@@ -2332,22 +2332,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G14:G19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E14:E19"/>
-    <mergeCell ref="D1:G5"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="A10:G11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:F12"/>
     <mergeCell ref="B49:F49"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B51:F51"/>
@@ -2362,6 +2346,22 @@
     <mergeCell ref="B30:B31"/>
     <mergeCell ref="E30:E31"/>
     <mergeCell ref="F30:F31"/>
+    <mergeCell ref="D1:G5"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="A10:G11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G14:G19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="E14:E19"/>
   </mergeCells>
   <pageMargins left="0.51" right="0.28999999999999998" top="0.5" bottom="0.19" header="0.3" footer="0.23"/>
   <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" r:id="rId1"/>
